--- a/biology/Zoologie/Bufo_japonicus/Bufo_japonicus.xlsx
+++ b/biology/Zoologie/Bufo_japonicus/Bufo_japonicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bufo japonicus est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bufo japonicus est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Japon. Elle se rencontre aux îles Ōsumi, à Kyūshū, à Shikoku, à Honshū et dans le sud d'Hokkaidō. Elle a été introduite à Izu Ōshima[2].
-Cette espèce vit dans des endroits très variés allant des zones côtières aux hautes montagnes. Il vit aussi dans les lieux modifiés par l'Homme[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Japon. Elle se rencontre aux îles Ōsumi, à Kyūshū, à Shikoku, à Honshū et dans le sud d'Hokkaidō. Elle a été introduite à Izu Ōshima.
+Cette espèce vit dans des endroits très variés allant des zones côtières aux hautes montagnes. Il vit aussi dans les lieux modifiés par l'Homme.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles mesurent jusqu'à 176 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles mesurent jusqu'à 176 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en référence au lieu de sa découverte, le Japon.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Temminck &amp; Schlegel, 1838 : Fauna Japonica sive Descriptio animalium, quae in itinere per Japonianum, jussu et auspiciis superiorum, qui summum in India Batava Imperium tenent, suscepto, annis 1823–1830 colleget, notis observationibus et adumbrationibus illustratis, vol. 3, Saurii et Batrachii, Leiden p. 85-144.</t>
         </is>
